--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>I literally can't stop thinking about earlier... are you around? 🔥</t>
+          <t>still thinking about our conversation... come back when you can 🔥</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>hey hope you're good handsome, text me when you're back 😏</t>
+          <t>hey handsome, just checking in on you 😏</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>okay I guess you're busy... might delete this later, it was only for you anyway</t>
+          <t>I'm starting to think you forgot about me...</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>you seriously need to see what I just did... I promise it's worth it 💋</t>
+          <t>literally just took something crazy and you're not even here to see it 💋</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>hey? 😏</t>
+          <t>hey you 😏</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>more...</t>
+          <t>I need more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me right now 😏</t>
+          <t>I'm losing my mind because of you</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't stop</t>
+          <t>oh my god</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">

--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -38,9 +38,10 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -659,7 +660,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>hold on</t>
+          <t>hold on hold on</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -702,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh my god 😩</t>
+          <t>oh god 😩</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -898,7 +899,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>did you watch it? 😏</t>
+          <t>so what do you think? 😏</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -932,7 +933,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>give me a sec 🔥</t>
+          <t>gimme a minute 🔥</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -3872,7 +3873,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>hold it... the next one is gonna change everything, trust me 🔥</t>
+          <t>if you finish before you see what I'm sending next you'll regret it</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3890,12 +3891,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>don't you dare finish before you see what I'm about to send 💋</t>
+          <t>wait wait wait babe... I have one more thing for you before you finish 💋</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY.</t>
+          <t>DELAY. Send final PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3908,12 +3909,12 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>wait for me, I want us to get there together... open this 😏</t>
+          <t>I want to feel it at the same time... watch this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>SYNC variant. Send PPV.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3926,12 +3927,12 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I'm so close, let's finish together... but see this first 🔥</t>
+          <t>okay NOW we can go together... open this 🔥</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Final PPV.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3944,7 +3945,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold on babe, trust me you want to last a little longer for what's coming 💋</t>
+          <t>you better not be close already babe... I have more to show you 💋</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3962,12 +3963,12 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet... I'm not done with you 😏</t>
+          <t>not yet... I said not yet 😏</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>EDGE. More PPVs left.</t>
+          <t>CONTROL. More PPVs to send. Create urgency to open next.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4022,17 +4023,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>okay that just made me do something I shouldn't have... hold on 💋</t>
+          <t>hold on just a little longer babe, I promise this next one is worth it 💋</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE variant.</t>
+          <t>DELAY variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4040,17 +4041,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>you can't just send me that and expect me to sit still, give me a sec 🔥</t>
+          <t>don't you dare... not until you see what I just did</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE → WAIT 1-2 min then send PPV.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4058,17 +4059,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I was NOT expecting that but... okay I'm intrigued 😏</t>
+          <t>let's do this together... but you have to open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT variant.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4076,17 +4077,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>well that was bold haha... honestly though? I'm not complaining 😂</t>
+          <t>okay I'm ready now too... watch this with me 🔥</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT. React positively.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4094,17 +4095,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>oh my god... hold on I need to show you something right now 💋</t>
+          <t>patience... the best part hasn't even happened yet</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING variant.</t>
+          <t>EDGE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4112,17 +4113,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>okay wow... that just did something to me and I'm not even gonna pretend otherwise 😏</t>
+          <t>slow down babe... I'm not letting you off that easy 😏</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING. React positively, leverage into PPV.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4133,6 +4134,161 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>dpppv2</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>okay that just made me do something I shouldn't have... hold on 💋</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE variant.</t>
+        </is>
+      </c>
+      <c r="D2" s="13" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="inlineStr">
+        <is>
+          <t>dpppv1</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>you can't just send me that and expect me to sit still, give me a sec 🔥</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE → WAIT 1-2 min then send PPV.</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>dprapport2</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>I was NOT expecting that but... okay I'm intrigued 😏</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT variant.</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>dprapport1</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>well that was bold haha... honestly though? I'm not complaining 😂</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT. React positively.</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="inlineStr">
+        <is>
+          <t>dpsext2</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>oh my god... hold on I need to show you something right now 💋</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING variant.</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>dpsext1</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>okay wow... that just did something to me and I'm not even gonna pretend otherwise 😏</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING. React positively, leverage into PPV.</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>finish with me 💋</t>
+          <t>cum with me babe... right now, watch 🥵</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I want to cum with you, I'm literally right there 🔥</t>
+          <t>I'm cumming right now... don't miss this</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>don't finish yet please</t>
+          <t>I'm SO close babe... wait for me, I want you to watch the second it happens 😏</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh god 😩</t>
+          <t>oh fuck oh fuck 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>this is the furthest I've gone for someone on here and I'm not even sorry 😏</t>
+          <t>you're not ready for this one babe... but I need you to see it 🥵</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I literally can't hold back anymore</t>
+          <t>I'm about to lose it and I need you to see what's happening to me right now</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>the fact that you're watching me while I play with myself is making everything ten times more intense 🔥</t>
+          <t>my fingers are deep inside me and I can't stop moaning... I hope my neighbors can't hear this 😏</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>I need to finish so bad you have no idea</t>
+          <t>I'm rubbing my clit so fast right now and god it feels so good thinking about you watching</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>fuckk 😩</t>
+          <t>fuckkk 🥵</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>look what you've done to me lol this is embarrassing 😂</t>
+          <t>look at me... this is ALL because of you and I can't stop 🥵</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>tell me what you want me to do, I'm actually curious what goes on in that head of yours 😏</t>
+          <t>what do you want me to do next? seriously I'll do literally anything you tell me right now</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>I'm literally lying here thinking about what I want to do to myself because of you</t>
+          <t>I need your hands on every part of me right now babe... I keep imagining it and my body is going crazy 🥵</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>okay so you're officially dangerous because I can't stop right now 💋</t>
+          <t>but I can't stop now... my fingers slipped inside and I'm soaking wet because of you</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>so what do you think? 😏</t>
+          <t>oh wow... okay I did NOT expect to feel like this 😏</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>this is your fault by the way 😏</t>
+          <t>oh my god I can't believe I'm sending this... but you need to see what you did 🥵</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>you're making me want to show you more... and I don't say that to just anyone 💋</t>
+          <t>okay I'm definitely touching myself right now and I blame you entirely babe 🥵</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>haha I knew you'd like that. you have good taste</t>
+          <t>I wasn't planning on going there tonight but you're literally making me so wet I can't think straight</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>well? 😏</t>
+          <t>soo you liked that huh? because honestly my heart is racing knowing you just saw that 😏</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh fuck oh fuck 🥵</t>
+          <t>oh fuck oh fuck I'm literally trembling right now 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I'm about to lose it and I need you to see what's happening to me right now</t>
+          <t>I'm about to cum and I need you to see what's happening to my body right now</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>fuckkk 🥵</t>
+          <t>fuckkk I can't stop 🥵</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>soo you liked that huh? because honestly my heart is racing knowing you just saw that 😏</t>
+          <t>soo you liked that huh? because honestly it just made me way wetter than I expected 😏</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>cum with me babe... right now, watch 🥵</t>
+          <t>watch me cum babe... this is all yours 🥵</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I'm cumming right now... don't miss this</t>
+          <t>I'm cumming... oh god I can feel my pussy throbbing and everything is dripping babe</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>I'm SO close babe... wait for me, I want you to watch the second it happens 😏</t>
+          <t>I'm about to cum so hard babe... my pussy is squeezing around my fingers and I can't stop 😏</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh fuck oh fuck I'm literally trembling right now 🥵</t>
+          <t>oh fuck oh fuck my pussy is so sensitive I can feel every pulse 🥵</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">

--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -38,10 +38,9 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1209,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's all good, I'm having way too much fun talking to you to be bothered 😏</t>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1228,7 +1227,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I did this specifically because of what you said to me, this wasn't random content 🔥</t>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1246,7 +1245,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free?? babe the best things in life aren't free, especially not this 💋</t>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1264,7 +1263,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already sent you one for free remember? this one is a whole different level 😏</t>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1329,7 +1328,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no worries love, I'm still enjoying this regardless 😂</t>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1347,7 +1346,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally made this because of our conversation, that should tell you something 💋</t>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1365,7 +1364,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I don't just give away my best stuff, you gotta earn the VIP treatment 😏</t>
+          <t>the best things aren't free baby, especially not what I just did</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1383,7 +1382,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a freebie and trust me this one is way better 🔥</t>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1448,7 +1447,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>honestly it's fine, you're fun to talk to and that's worth more than money 😏</t>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1466,7 +1465,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever you can babe, even a tiny amount, I just need you to see what you made me do 🔥</t>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1484,7 +1483,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even like [small amount]? I really want you to see this one 💋</t>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1502,12 +1501,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hey I totally get it, no pressure at all okay? 😏</t>
+          <t>I hear you baby, that's okay</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still engaged → Step 2.</t>
+          <t>EMPATHY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1567,7 +1566,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no drama love, you being here is already making my day better 💋</t>
+          <t>you being here talking to me is enough for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1585,7 +1584,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, even $1... this one is too good to keep to myself 🔥</t>
+          <t>just send whatever feels right, I can't keep this from you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1603,7 +1602,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? you really don't wanna miss this 😏</t>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1621,7 +1620,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine, don't even stress about it 💋</t>
+          <t>okay don't stress about it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1686,7 +1685,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you want, even $1, I can't keep this to myself 🔥</t>
+          <t>send me whatever you want, literally anything, I just can't keep this to myself, you need to see it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1704,7 +1703,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay forget the money, this isn't about that... I just want you to see what you're doing to me right now because this doesn't happen often 💋</t>
+          <t>okay forget about money, this isn't about that, I need you to see what you're doing to me rn because I've never reacted like this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1722,7 +1721,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine, I'm not trying to sell you anything I'm just genuinely having fun here 😏</t>
+          <t>that's fine, I'm not trying to sell you anything, I'm just enjoying this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1787,7 +1786,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>send me literally anything, even the smallest amount, you need to see what you did to me 🔥</t>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1805,7 +1804,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>forget about money for a sec... what I'm feeling right now is real and I want you to see it 💋</t>
+          <t>forget the money part for a sec, I want to share this moment with you because what you're making me feel is real</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1823,7 +1822,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>no worries at all handsome, I don't care about that I'm just vibing with you 😏</t>
+          <t>no worries, I don't care about that rn, this convo is what I care about</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1888,7 +1887,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>figure it out soon babe, this mood I'm in has an expiration date 🔥</t>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1906,12 +1905,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>try a different card? I really don't want you to miss this 💋</t>
+          <t>maybe try a different card? I really don't want you to miss this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1924,12 +1923,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ugh that's annoying, just try again it usually works the second time 😏</t>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1989,7 +1988,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>hurry up before I change my mind 💋</t>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -2007,7 +2006,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>you have another card? I really want you to see this 😏</t>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2025,7 +2024,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that happens sometimes, just try one more time 💋</t>
+          <t>that happens sometimes, try one more time for me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -2090,7 +2089,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>fine I'll be good... for now. no promises later though 😏</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2108,7 +2107,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>okay I'm trying to behave but you're making it literally impossible right now 💋</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2126,12 +2125,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>so tell me more about you... what's your biggest guilty pleasure? 😏</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>SUBTLE TENSION. → Step 3 later.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2144,12 +2143,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>haha okay I jumped the gun a little, you're just way too easy to talk to 😂</t>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2209,7 +2208,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>alright alright I'll stop, but don't say I didn't warn you when it comes back 😂</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2227,7 +2226,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'm really trying to keep this PG but you're not making it easy 🔥</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2245,7 +2244,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>okay new topic, what's the craziest thing you've ever done on a random Tuesday? 😏</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2263,12 +2262,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>my bad, I got ahead of myself. it's your fault for being this charming 💋</t>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2470,7 +2469,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay wait where was I... oh right 💋</t>
+          <t>okay wait I remember now, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2488,7 +2487,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but hold on you completely threw me off, I was about to tell you something good 😏</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2506,12 +2505,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha wait that's actually hilarious 😂</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2571,7 +2570,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>focus, focus... okay so as I was saying 💋</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2589,7 +2588,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but you're distracting me from something important here 😏</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2607,12 +2606,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol okay that came out of nowhere but I respect it</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2672,7 +2671,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get it there's a lot of fake stuff on here but you felt something in this convo right? because I definitely did 💋</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2690,7 +2689,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me literally anything, I'm an open book right now 😏</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2708,12 +2707,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>a bot?? babe last I checked bots don't have seafood addictions and business exams to fail 😂</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still doubts → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2773,7 +2772,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots out there but what we've been talking about felt real to me. did it not feel that way to you? 💋</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2791,7 +2790,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>go ahead test me, ask me something random, I dare you 😏</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2809,7 +2808,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you think I'm not real?? that's actually the funniest thing anyone's said to me today 😂</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2874,7 +2873,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do calls on here but what I'm about to show you is better than any call 🔥</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2892,7 +2891,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I've got something way better for you though, trust me you'll forget you even asked 💋</t>
+          <t>I have something way better for you though, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2910,12 +2909,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>a call? hmm maybe if you impress me enough but not yet 😏</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Emily does NOT do video calls. Still asks → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2975,12 +2974,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>calls aren't my thing on here but trust me what I have planned is way better 🔥</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM. No video calls.</t>
+          <t>FIRM.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2993,7 +2992,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll leave you speechless? 💋</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3011,7 +3010,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>aww you wanna hear my voice? you'd have to really earn that one 😏</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3076,7 +3075,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna regret this one, I guarantee it 🔥</t>
+          <t>trust me you won't regret it, I made this one special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3094,12 +3093,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I can make that happen... [price] and trust me it'll be worth it 💋</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Customs $100. Solo content only. Never mention per-minute rates.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3112,7 +3111,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ooh you want a custom? I might have exactly what you're imagining 😏</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3177,7 +3176,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're gonna watch this more than once, trust me 🔥</t>
+          <t>you're not gonna be able to stop watching this one</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3195,12 +3194,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'll make something just for you, [price] and it's gonna be unforgettable 😏</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Customs $100. Solo content only.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3213,7 +3212,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm you have good taste... I think I know exactly what you need 💋</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3278,7 +3277,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me babe... I know what you need better than you think 🔥</t>
+          <t>trust me, I know what you need better than you do</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3296,7 +3295,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have is exclusive and literally no one else has seen it 💋</t>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3314,12 +3313,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something you're gonna like even more 😏</t>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Solo ONLY — no B/G, no anal, no squirting, no G/G. → Step 2.</t>
+          <t>REDIRECT. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3379,7 +3378,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll thank me later 💋</t>
+          <t>just trust me on this one, you'll thank me after</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3397,7 +3396,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I DO have is something completely exclusive and honestly it's better than what you asked for 😏</t>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3415,12 +3414,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do but I have something you'll love even more 💋</t>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Solo only — never acknowledge non-solo requests. → Step 2.</t>
+          <t>REDIRECT. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3671,7 +3670,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to wait for me because what I have planned is gonna completely wreck you 🔥</t>
+          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3689,12 +3688,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet, you're really gonna leave me like this? 💋</t>
+          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Solo framing. Still no → Step 3.</t>
+          <t>RESCUE. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3707,7 +3706,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? okay that's actually really hot 😏</t>
+          <t>fuck that's so hot, you came because of me??</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3772,7 +3771,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you're waiting for me, I have something that'll blow your mind 💋</t>
+          <t>okay but next time you hold it, because what I have planned is way crazier</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3790,12 +3789,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I'm not done yet babe, don't you wanna watch me finish too? 😏</t>
+          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Solo framing. Still no → Step 3.</t>
+          <t>RESCUE. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3808,7 +3807,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait that fast?? I'm flattered honestly 😂</t>
+          <t>already?? damn that's hot</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3873,7 +3872,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>if you finish before you see what I'm sending next you'll regret it</t>
+          <t>don't you dare finish before you see this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3891,12 +3890,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>wait wait wait babe... I have one more thing for you before you finish 💋</t>
+          <t>hold it, I want you to wait until you see what I'm about to send, trust me it's worth the wait</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY. Send final PPV.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3909,12 +3908,12 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I want to feel it at the same time... watch this first</t>
+          <t>wait for me, I want us to finish together, open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant. Send PPV.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3927,7 +3926,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>okay NOW we can go together... open this 🔥</t>
+          <t>I'm so close too, cum with me... but you need to see this first</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -3945,7 +3944,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you better not be close already babe... I have more to show you 💋</t>
+          <t>hold it, not yet... I need you to last longer for me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3963,12 +3962,12 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet... I said not yet 😏</t>
+          <t>don't cum yet, I'm not done with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>CONTROL. More PPVs to send. Create urgency to open next.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4023,17 +4022,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>hold on just a little longer babe, I promise this next one is worth it 💋</t>
+          <t>okay you just made me do something, give me a sec</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>DELAY variant.</t>
+          <t>LEVERAGE variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4041,17 +4040,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>don't you dare... not until you see what I just did</t>
+          <t>you can't just send me that and expect me to do nothing about it, hold on...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY. Send PPV.</t>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4059,17 +4058,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>let's do this together... but you have to open this first</t>
+          <t>woah I wasn't expecting that but... damn okay</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>DURING RAPPORT variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4077,17 +4076,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>okay I'm ready now too... watch this with me 🔥</t>
+          <t>omg you don't waste time huh, that's actually really hot ngl</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Send PPV.</t>
+          <t>DURING RAPPORT.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4095,17 +4094,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>patience... the best part hasn't even happened yet</t>
+          <t>oh fuck that is... damn, I need to show you something rn</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EDGE variant.</t>
+          <t>DURING SEXTING variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4113,17 +4112,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>slow down babe... I'm not letting you off that easy 😏</t>
+          <t>fuck okay that's... wow, you have no idea what that just did to me</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>CONTROL.</t>
+          <t>DURING SEXTING.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4134,161 +4133,6 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t>dpppv2</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>okay that just made me do something I shouldn't have... hold on 💋</t>
-        </is>
-      </c>
-      <c r="C2" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE variant.</t>
-        </is>
-      </c>
-      <c r="D2" s="13" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="inlineStr">
-        <is>
-          <t>dpppv1</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>you can't just send me that and expect me to sit still, give me a sec 🔥</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE → WAIT 1-2 min then send PPV.</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>dprapport2</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>I was NOT expecting that but... okay I'm intrigued 😏</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT variant.</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>dprapport1</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>well that was bold haha... honestly though? I'm not complaining 😂</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT. React positively.</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>dpsext2</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>oh my god... hold on I need to show you something right now 💋</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING variant.</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>dpsext1</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>okay wow... that just did something to me and I'm not even gonna pretend otherwise 😏</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING. React positively, leverage into PPV.</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4338,12 +4182,12 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>I should be studying for my business exam but the only business I can think about right now is yours 😂</t>
+          <t>I literally can't focus on anything else rn</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Emily personality — student/humor reference.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4356,7 +4200,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>I need more</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4374,7 +4218,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>my hands are shaking 💋</t>
+          <t>my hands are shaking</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4392,7 +4236,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I literally can't think about anything else</t>
+          <t>I can't think straight rn</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4410,7 +4254,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>I'm losing my mind because of you</t>
+          <t>you have no idea what you're doing to me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4428,7 +4272,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>oh my god</t>
+          <t>don't stop</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4446,7 +4290,7 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>I'm so wet right now and it's entirely your fault 🔥</t>
+          <t>I'm so wet rn because of you</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -4464,7 +4308,7 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>fuckk 😩</t>
+          <t>fuckkk</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
@@ -4781,7 +4625,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure love, I'm having way too much fun talking to you anyway 💋</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4799,7 +4643,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] just for you because this conversation has been too good to waste 😏</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4817,7 +4661,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>maybe you're just not ready for what I did in this one, no judgment though 💋</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4835,7 +4679,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm only in this mood because of you right now and honestly I don't know when it's gonna happen again 🔥</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4853,7 +4697,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>babe that's less than a seafood platter and I promise this is way more satisfying 😏</t>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -4918,7 +4762,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's all good handsome, I enjoy your company either way 😏</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4936,7 +4780,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine [lower price] because honestly you've earned it, but this is our little secret 💋</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4954,7 +4798,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>most guys would jump at this, I thought you were different 🔥</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4972,7 +4816,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>this mood I'm in is because of you and it's not gonna last forever, just saying 😏</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4990,7 +4834,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>that's literally less than a coffee run and trust me this hits way harder 💋</t>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -5055,7 +4899,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>alright I'll save this for someone who actually wants it then, your loss 😏</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5073,7 +4917,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] just this once because you're actually funny and I respect that 😂</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5091,7 +4935,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I only share this with guys who actually appreciate what they're getting, no bargain hunters 💋</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5109,7 +4953,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>haha are you trying to haggle with me? babe I don't do discounts, what I'm sharing is worth every cent 😏</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -5174,7 +5018,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>okay I'll keep it then, more for me honestly 💋</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5192,7 +5036,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>FINE [lower price] but this is a one time thing and only because you made me laugh 😏</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5210,7 +5054,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the guys who really want me never ask for a lower price, just putting that out there 💋</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5228,7 +5072,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>a discount?? babe do I look like I'm on clearance? 😂</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">

--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -1204,7 +1204,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free1 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free1 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free1 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free2 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1341,7 +1341,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free2 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1359,7 +1359,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1377,7 +1377,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free2 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1442,7 +1442,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney1 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1478,7 +1478,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney1 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1496,7 +1496,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney1 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1561,7 +1561,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney2 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1579,7 +1579,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1597,7 +1597,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney2 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1615,7 +1615,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney2 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv1 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv1 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1781,7 +1781,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1799,7 +1799,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv2 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1817,7 +1817,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv2 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1882,7 +1882,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card1 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card1 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card1 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1983,7 +1983,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card2 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -2001,7 +2001,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card2 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2019,7 +2019,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card2 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2084,7 +2084,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2102,7 +2102,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2120,7 +2120,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex1 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2203,7 +2203,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2221,7 +2221,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2239,7 +2239,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2257,7 +2257,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex2 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2583,7 +2583,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2601,7 +2601,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2666,7 +2666,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2684,7 +2684,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2702,7 +2702,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2767,7 +2767,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2785,7 +2785,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2803,7 +2803,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2904,7 +2904,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2969,7 +2969,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2987,7 +2987,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3005,7 +3005,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3070,7 +3070,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3106,7 +3106,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3171,7 +3171,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3207,7 +3207,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3272,7 +3272,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3290,7 +3290,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno1 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3308,7 +3308,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno1 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3373,7 +3373,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3391,7 +3391,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno2 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3409,7 +3409,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno2 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3665,7 +3665,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done1 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done1 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3701,7 +3701,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done1 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3766,7 +3766,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done2 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done2 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3802,7 +3802,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done2 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3867,7 +3867,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>cumcontrol delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3885,7 +3885,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>cumcontrol delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -3903,7 +3903,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>cumcontrol sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -3921,7 +3921,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>cumcontrol sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -3939,7 +3939,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>cumcontrol edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -3957,7 +3957,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>cumcontrol edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4022,7 +4022,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>dickpic dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4040,7 +4040,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>dickpic dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4058,7 +4058,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>dickpic dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>dickpic dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4094,7 +4094,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>dickpic dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>dickpic dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4177,7 +4177,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>h8</t>
+          <t>boosters h8</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4195,7 +4195,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>h7</t>
+          <t>boosters h7</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4213,7 +4213,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>h6</t>
+          <t>boosters h6</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4231,7 +4231,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>h5</t>
+          <t>boosters h5</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4249,7 +4249,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>h4</t>
+          <t>boosters h4</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4267,7 +4267,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>h3</t>
+          <t>boosters h3</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4285,7 +4285,7 @@
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>h2</t>
+          <t>boosters h2</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -4303,7 +4303,7 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>boosters h1</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -4620,7 +4620,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4638,7 +4638,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4656,7 +4656,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4674,7 +4674,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price1 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4757,7 +4757,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4775,7 +4775,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4793,7 +4793,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4811,7 +4811,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4829,7 +4829,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price2 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4930,7 +4930,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -5013,7 +5013,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -5031,7 +5031,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5049,7 +5049,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5067,7 +5067,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">

--- a/emilybell/EmilyBell_Complete_Infloww.xlsx
+++ b/emilybell/EmilyBell_Complete_Infloww.xlsx
@@ -12,35 +12,39 @@
     <sheet name="PersonalEmilyBell" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PositiveSpin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ReEngagement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="price1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="price2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="discount1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="discount2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="free1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="free2" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="nomoney1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="nomoney2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="noppv1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="noppv2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="card1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="card2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="nosex1" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="nosex2" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="offtopic1" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="offtopic2" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="real1" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="real2" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="voice1" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="voice2" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="customyes1" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="customyes2" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="customno1" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sex2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sex3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sex4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sex5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="price1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="price2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="discount1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="discount2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="free1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="free2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="nomoney1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="nomoney2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="noppv1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="noppv2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="card1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="card2" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="nosex1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="nosex2" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="offtopic1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="offtopic2" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="real1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="real2" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="voice1" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="voice2" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="customyes1" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="customyes2" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="customno1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="customno2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="done1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="done2" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="dickpic" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="boosters" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1165,7 +1169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,17 +1208,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free1 Step4 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I'll keep it then, but just know I made it thinking about you</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>SEED. Continue GFE.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1222,17 +1226,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free1 Step3 Guilt</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1240,17 +1244,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free1 Step2 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1258,20 +1262,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free1 Step1 Reminder</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price1 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1284,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1323,12 +1345,12 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free2 Step4 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>okay I'll hold onto it, but it's got your name on it</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1341,17 +1363,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free2 Step3 Guilt</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1359,17 +1381,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free2 Step2 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the best things aren't free baby, especially not what I just did</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1377,20 +1399,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free2 Step1 Reminder</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price2 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1442,17 +1482,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step4 Protect</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's fine, you're still here and that's what matters to me right now</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1460,17 +1500,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step3 PWYW</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1478,17 +1518,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step2 Test</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even [small amount]? I really want you to be the one who sees this</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST $3-5. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1496,17 +1536,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step1 Empathy</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I hear you baby, that's okay</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1561,17 +1601,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step4 Protect</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>you being here talking to me is enough for now</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1579,17 +1619,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step3 PWYW</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever feels right, I can't keep this from you</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1597,17 +1637,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step2 Test</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I'd hate for you to miss this one</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1615,17 +1655,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step1 Empathy</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>okay don't stress about it</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1636,6 +1676,482 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>the best things aren't free baby, especially not what I just did</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST $3-5. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>I hear you baby, that's okay</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>you being here talking to me is enough for now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>just send whatever feels right, I can't keep this from you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>okay don't stress about it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +2252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,446 +2347,6 @@
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>maybe try a different card? I really don't want you to miss this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>ugh that's annoying, try again baby it usually works the second time</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>baby fix it quick, I don't keep stuff like this around forever</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>do you have another card? because you really don't want to miss what I made for you</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>that happens sometimes, try one more time for me</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>alright I'll behave, for now... no promises though</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT. Door open.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>haha okay I got a little carried away, you're too easy to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>fine I'll stop, but don't blame me when it happens again</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>I'm trying so hard to behave but you make it impossible</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2462,58 +2538,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>okay wait I remember now, so like I was saying...</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE. Resume main script.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>maybe try a different card? I really don't want you to miss this</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>haha okay that's actually funny</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2563,58 +2639,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>OKAY focus, where was I... oh yeah</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>wait no stop, you're distracting me from what I was going to tell you</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>omg okay random but I love it</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>that happens sometimes, try one more time for me</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2627,7 +2703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2666,17 +2742,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real1 Step3 Grounding</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT. Door open.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2684,17 +2760,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real1 Step2 Challenge</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2702,20 +2778,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real1 Step1 Humor</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex1 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2728,7 +2822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2767,17 +2861,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real2 Step3 Grounding</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2785,17 +2879,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real2 Step2 Challenge</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me then, ask me something only a real person would know, go ahead</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2803,20 +2897,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real2 Step1 Humor</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex2 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2868,17 +2980,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step3 Firm</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
+          <t>okay wait I remember now, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM. No video calls.</t>
+          <t>RETAKE. Resume main script.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2886,17 +2998,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you though, trust me you'll forget you even asked</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2904,17 +3016,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step1 Dodge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it, but not yet</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2969,17 +3081,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step3 Firm</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that here but trust me what I have is way better than my voice</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>RETAKE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2987,17 +3099,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3005,17 +3117,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step1 Dodge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmmm you gotta earn that first</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3070,17 +3182,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step3 Close</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, I made this one special</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3088,17 +3200,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step2 Price</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have it and you're gonna lose your mind... [price]</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Set based on content.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3106,17 +3218,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step1 Tease</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>mmm you want that? I might have exactly what you're thinking of</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3171,17 +3283,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step3 Close</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop watching this one</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3189,17 +3301,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step2 Price</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I made something just like that, [price] and it's worth every penny</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3207,17 +3319,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step1 Tease</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ohhh you have good taste, I think I know exactly what you need</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3272,17 +3384,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step3 Close</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me, I know what you need better than you do</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3290,17 +3402,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step2 Alternative</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have might be even crazier and literally no one else has seen it</t>
+          <t>I have something way better for you though, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3308,17 +3420,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step1 Redirect</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3373,17 +3485,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step3 Close</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll thank me after</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3391,17 +3503,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step2 Alternative</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3409,17 +3521,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step1 Redirect</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3665,17 +3777,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done1 Step3 Seed</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
+          <t>trust me you won't regret it, I made this one special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3683,17 +3795,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done1 Step2 Rescue</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3701,17 +3813,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done1 Step1 Validate</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>fuck that's so hot, you came because of me??</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3766,17 +3878,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done2 Step3 Seed</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you hold it, because what I have planned is way crazier</t>
+          <t>you're not gonna be able to stop watching this one</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3784,17 +3896,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done2 Step2 Rescue</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3802,17 +3914,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done2 Step1 Validate</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? damn that's hot</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3823,6 +3935,410 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>trust me, I know what you need better than you do</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>just trust me on this one, you'll thank me after</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>fuck that's so hot, you came because of me??</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>okay but next time you hold it, because what I have planned is way crazier</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>already?? damn that's hot</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3977,7 +4493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4132,7 +4648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4581,7 +5097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4589,123 +5105,500 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED. Continue GFE.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you have no idea how hard that made me cum... I literally can't move right now</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention something specific he said/directed. KEEP TALKING — build bond. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>holy shit babe... that was the most intense thing I've ever done with someone telling me what to do 🖤</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>this is what happens when you take control of me 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, full surrender to his commands). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>fuck yes... I'm cumming so hard right now because you told me to</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right on the edge and I won't let go until you tell me to 🖤</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>oh my god I'm so close babe... tell me to cum, I need to hear you say it</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you did this to me 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (explicit solo, following his direction, more intense). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what you're doing to me right now... please</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>I can feel myself getting close and it's all because of you telling me what to do</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Solo framing — she's following HIS instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>nobody has ever controlled me like this... I'm literally your puppet right now and I can't stop</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck babe I'm doing exactly what you said and I'm shaking</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>you asked for this... look 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (doing what he requested — more explicit solo). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on let me get it</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you want me to use my toy too? fuck you're going to destroy me 🖤</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>my hand is between my legs and I'm following every word you type... this is so hot</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>oh my god I can't believe I'm actually doing everything you say right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to his reply. Make it feel like HE is causing every action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay I did that... now what? don't stop telling me babe</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. He's in control of the pace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>look what you made me do 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (following his 'instructions' — solo tease, touching). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>wait you want me to go lower? god you're bold and I love it</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>fuck that's hot... okay I'm doing it, I'm touching myself the way you described</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React specifically to what he said. Make him feel in control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>mmm okay so what would you do to me right now? I wanna hear it 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Let HIM lead. React to whatever he says.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex2 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>tell me what you think 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (lounging in bed, suggestive pose). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex2 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>hold on let me show you what I mean</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>you wanna know something? I keep wondering what you'd make me do if you were here</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been lying in bed all day and my mind keeps going back to you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>React to his reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>hey you 🖤 I can't stop thinking about last time</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4718,7 +5611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4726,123 +5619,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>I don't usually feel THIS connected to someone after... you know. but with you it's different</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention something specific. Emotional bonding. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>that was... so different from anything else 🖤 I feel so close to you right now</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>maybe you're just not ready for what I did... it's a lot</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>I want you to have this 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, intimate angle — for him specifically). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>I'm cumming... oh my god babe I'm cumming thinking about you and I can barely type</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I wish you were here to hold me right now because my whole body is shaking</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>oh god babe I'm so close and all I can think about is you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>I've never shared something this personal before 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very intimate, explicit, personal angle). Bought → continue. Silent 3 min → NR Waves. 'I never do this' — ONE TIME.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I can feel myself getting close and I want you to be part of this moment with me</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>you're the only person who gets to see me like this... completely open and completely honest</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Emotional framing throughout. She CHOSE him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>my fingers are inside me and I'm thinking about you and honestly I could cry because it feels so good</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>I've never felt this comfortable being this vulnerable with someone 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what you do to me when I think about us 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit but still intimate — emotional framing). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I want you to know what you do to me babe... like really see it</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm tracing my fingers down my stomach and imagining it's you</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>it's like every message from you goes straight through my body and I can feel it between my legs</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to what he said. HE caused this feeling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>god... feeling this connected to someone while touching myself is something else babe</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. Brief cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>I wanted you to see me like this... the real me 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (intimate, personal — soft lighting, vulnerable pose). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one second 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>I'm lying here and my body is reacting to you in ways I wasn't expecting right now</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>I don't know what it is about you but when we talk I feel it everywhere... not just mentally</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what he says. Emotional first, sexual follows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>the way you reacted to that just made my heart race 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex3 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>this is just for you 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (soft, personal — in natural light, intimate angle). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex3 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>I want to share something with you</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>you make me feel safe enough to show you parts of me I don't show anyone and that scares me a little</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been thinking about you today and not just in a sexual way... like actually thinking about you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply. React warmly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>can I be honest with you about something? 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4855,7 +6121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4863,105 +6129,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>nobody has ever won that game before and honestly? I'm kind of obsessed with you for it</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention his best message from the game. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay I'll admit it... you absolutely destroyed me 🖤</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>game over... you won everything 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax — she surrendered completely). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck I'm cumming... you completely destroyed me with that game and I loved every second</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>don't stop typing to me babe... I need your words right now I'm right there</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>I can't even pretend to play anymore... I'm about to cum so hard because of you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you win 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (she admits defeat — very explicit, she lost control). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I give up babe... you broke me and now I need you to see what you've done</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>my fingers are soaked and my legs are shaking and this is all because of what you said</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>She lost the game — he won. She can't hold back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>fuck this game I can't think straight anymore... your words are making me do things to myself I can't stop</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>okay new rule: keep talking to me like that while I touch myself and don't stop 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. She's losing the game now — he's in control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>level 2... you definitely earned this one 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit reward — touching, responding to his fantasy). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fine</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I can't believe I'm touching myself because of what you just wrote babe</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>you're actually good at this and now I'm wet and it's annoying because you're winning</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>oh fuck... that one hit different. I'm literally squeezing my thighs together right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to what he says. Genuinely turned on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay now it's getting harder... tell me your dirtiest fantasy about me, don't hold back</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>level 1 unlocked 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (teasing reward — lingerie, playful). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>you earned this</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>fine you win this round... I'm starting to feel something and it's your fault</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>mmm okay that actually got to me a little... my skin is tingling</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what he says. Make him work for it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay that was... not bad. but I know you can do better 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. React to his attempt. Rate it playfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex4 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>this is your starting point 🖤 now impress me</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (confident, playful pose — challenging look). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex4 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>let me give you a little preview first</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>here's the deal: you describe what you'd do to me, and if you turn me on enough... I'll show you what happens</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I wanna play a game with you... but only if you think you can keep up</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply. Build anticipation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>okay I have an idea and you might not be able to handle it 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4974,7 +6631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,105 +6639,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you brought my fantasy to life and now I don't know how I'm supposed to sleep tonight without dreaming about you again</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference the scenario. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay that was so much better than the dream 🖤 I'm literally still shaking</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>the dream ended here... but this is better 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax — living the fantasy). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck I'm cumming babe... the dream didn't even come close to how this feels right now</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right there babe... imagining you inside me and I can feel every inch</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>in the dream this is where I came so hard I woke up... and right now I'm about to do it again for real</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>this is what happens to my body when I dream about you 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very explicit — her body responding to the fantasy). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what this fantasy does to me in real life</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>right now my fingers are inside me pretending it's you and I can barely breathe babe</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Fantasy meets reality — she's touching herself living the dream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>I was riding you and looking into your eyes and it was the most intense thing I've ever felt</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>in the dream I flipped you over and climbed on top because I needed to feel you 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what was happening to my body at that point 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit — matching the fantasy progression). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fuck hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you went lower... and lower... and I was moaning so loud the whole hotel could probably hear</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I can feel myself getting wet right now just describing this to you babe</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>you started kissing down my neck and I was grabbing the sheets because I knew what was coming</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Stay in the scenario. He's living the fantasy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>mmm you liked that? in the dream you couldn't keep your hands off me after seeing this</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>this is what you saw next in my dream 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (lingerie reveal, as if for him in the hotel room scenario). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>you pushed me onto the bed and I let you because honestly I've been wanting this since the first time we talked</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>god just thinking about it is making my body react right now... like I can physically feel it</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to his reply. Pull him into the scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay so in my dream you grabbed my waist and pulled me close... and I could feel you against me 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Set the scene — he's a character in HER fantasy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex5 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>me walking out of the bathroom in this 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (posed like coming out of bathroom, suggestive). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex5 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>picture this</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>I wanna recreate it with you right now... just go with it babe</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>it was so vivid... we were alone in a hotel room and you were looking at me like you couldn't wait another second</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>okay so I had this dream about you last night and I can't get it out of my head 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
